--- a/R1_by_R2 (2 by 1).xlsx
+++ b/R1_by_R2 (2 by 1).xlsx
@@ -65,234 +65,300 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0902987404018645</v>
+        <v>1.0903545066956373</v>
       </c>
       <c r="B1" t="n">
-        <v>1.090265903781677</v>
+        <v>1.0903542831125246</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0902138677285738</v>
+        <v>1.0903539287574715</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0901314124219799</v>
+        <v>1.0903533671433154</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0900007704445505</v>
+        <v>1.090352477046759</v>
       </c>
       <c r="F1" t="n">
-        <v>1.0897938194771268</v>
+        <v>1.0903510663435492</v>
       </c>
       <c r="G1" t="n">
-        <v>1.089466081794794</v>
+        <v>1.0903488305416005</v>
       </c>
       <c r="H1" t="n">
-        <v>1.0889472983603727</v>
+        <v>1.0903452870643664</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0881267001364021</v>
+        <v>1.090339671106912</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0868301881142848</v>
+        <v>1.0903307706037946</v>
       </c>
       <c r="K1" t="n">
-        <v>1.084785461235654</v>
+        <v>1.0903166647332803</v>
       </c>
       <c r="L1" t="n">
-        <v>1.0815699242608112</v>
+        <v>1.0902943096314246</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0765358085660033</v>
+        <v>1.0902588821873143</v>
       </c>
       <c r="N1" t="n">
-        <v>1.0687096583192779</v>
+        <v>1.0902027410183444</v>
       </c>
       <c r="O1" t="n">
-        <v>1.056674443055294</v>
+        <v>1.0901137822114875</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0384717678233195</v>
+        <v>1.089972839583185</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.011620439755431</v>
+        <v>1.0897495800035892</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9734299739533387</v>
+        <v>1.0893960370955813</v>
       </c>
       <c r="S1" t="n">
-        <v>0.921817746138994</v>
+        <v>1.0888364608332817</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8566226645962409</v>
+        <v>1.0879514748075096</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7807959962872301</v>
+        <v>1.0865535752502746</v>
       </c>
       <c r="V1" t="n">
-        <v>0.70027887877134</v>
+        <v>1.0843498023796818</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6219588311278421</v>
+        <v>1.0808862571133253</v>
       </c>
       <c r="X1" t="n">
-        <v>0.550899804768135</v>
+        <v>1.0754690349639495</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.4889183672960817</v>
+        <v>1.0670597833628037</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.43522894603404416</v>
+        <v>1.0541573894622005</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.38810613151873247</v>
+        <v>1.0347106944773241</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.346160242434886</v>
+        <v>1.006171242862122</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.3086415471720603</v>
+        <v>0.965876913073561</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.2751301027215067</v>
+        <v>0.9119630333253281</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.24524657067372427</v>
+        <v>0.844719253770243</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.21860532234957258</v>
+        <v>0.7676503135783822</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.19485316026154975</v>
+        <v>0.6870384427945425</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.1736779088636219</v>
+        <v>0.609648365710005</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.1548011929041947</v>
+        <v>0.5400484046406051</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.13797425926022874</v>
+        <v>0.4795352161138279</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.12297506515736735</v>
+        <v>0.4270494648206689</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.10960546907951664</v>
+        <v>0.3808579022865717</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.33968000113137053</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0.30284795715672364</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.2699616249134792</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.24063896622639303</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.21449740523453606</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.19119080362396854</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.1704130235917396</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.1518907865959541</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.1353799459796158</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.12066258788284212</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.107544262562223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-30.119496449317953</v>
+        <v>-364.9722047923746</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.92780165339552</v>
+        <v>-289.90797763400525</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.010349100421845</v>
+        <v>-230.2824074391837</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.105266064451095</v>
+        <v>-182.9202151690432</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.004591744616771</v>
+        <v>-145.29919137759074</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.543202153965941</v>
+        <v>-115.41587936117618</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.590015788978154</v>
+        <v>-91.67888378288558</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.041011320628589</v>
+        <v>-72.82412306680963</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.813684628016861</v>
+        <v>-57.84751244265743</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.8426483366677204</v>
+        <v>-45.95149276638994</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.0761363201611864</v>
+        <v>-36.50255757963548</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.4732209420803506</v>
+        <v>-28.99751656502776</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.0015836716043944</v>
+        <v>-23.036698795674823</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.6357008656005627</v>
+        <v>-18.30266873859268</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.355317276345277</v>
+        <v>-14.543321530816636</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.1440861724190792</v>
+        <v>-11.55845722855798</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.9882770402438166</v>
+        <v>-9.189118937024341</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.8755367653031102</v>
+        <v>-7.309126794895971</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.7938993577813871</v>
+        <v>-5.818356487303017</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7315354056206492</v>
+        <v>-4.637403398465834</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.6777625678292188</v>
+        <v>-3.703346403958923</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6250590194015677</v>
+        <v>-2.966382146006185</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5705541902230247</v>
+        <v>-2.3871438198027684</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.515433088235677</v>
+        <v>-1.9345493834666636</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4625493862168183</v>
+        <v>-1.584043408192263</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4141031674361882</v>
+        <v>-1.316106181562837</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.37075181504046223</v>
+        <v>-1.1149106347509103</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.3320615233091488</v>
+        <v>-0.9670360363209034</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2973488235062865</v>
+        <v>-0.8602490480766021</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.2661218281776579</v>
+        <v>-0.7825945187715516</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.23805521876470803</v>
+        <v>-0.722325764999824</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.21286410290598648</v>
+        <v>-0.6691327239979056</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.19027252508607964</v>
+        <v>-0.6162010052674846</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.17002509724477768</v>
+        <v>-0.5614341121214735</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.15188947839468633</v>
+        <v>-0.5064803465849987</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.13565416001133992</v>
+        <v>-0.45421630787701345</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.12112699682598352</v>
+        <v>-0.4066046992848931</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.1081338384255321</v>
+        <v>-0.3640681735251796</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.3260781463725518</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2919679893009523</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.26128247637853563</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.23370963096183367</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.20896587191889812</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.18677789089391644</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.1668942130435575</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.1490860685407353</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.13314523334792397</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.11888262655933021</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.1061269318495252</v>
       </c>
     </row>
   </sheetData>
@@ -310,234 +376,300 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0004353508980863</v>
+        <v>1.0000029789676739</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0006879010982974</v>
+        <v>1.0000047212478624</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0010850527689197</v>
+        <v>1.0000074824281362</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0017067826094532</v>
+        <v>1.0000118582328934</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0026732007970265</v>
+        <v>1.0000187924841397</v>
       </c>
       <c r="F1" t="n">
-        <v>1.00415885082957</v>
+        <v>1.0000297801914058</v>
       </c>
       <c r="G1" t="n">
-        <v>1.0064038457836966</v>
+        <v>1.0000471886574396</v>
       </c>
       <c r="H1" t="n">
-        <v>1.009708363466355</v>
+        <v>1.00007476446473</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0143838743516753</v>
+        <v>1.0001184321538412</v>
       </c>
       <c r="J1" t="n">
-        <v>1.020624474306185</v>
+        <v>1.0001875479267568</v>
       </c>
       <c r="K1" t="n">
-        <v>1.028280682587679</v>
+        <v>1.00029685637163</v>
       </c>
       <c r="L1" t="n">
-        <v>1.0365977720197896</v>
+        <v>1.000469516338496</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0440860032673662</v>
+        <v>1.0007417101356313</v>
       </c>
       <c r="N1" t="n">
-        <v>1.0486615124966894</v>
+        <v>1.0011694907773145</v>
       </c>
       <c r="O1" t="n">
-        <v>1.0479484390967784</v>
+        <v>1.0018385252415585</v>
       </c>
       <c r="P1" t="n">
-        <v>1.039439229512181</v>
+        <v>1.0028769079997966</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.0203910008319943</v>
+        <v>1.0044694507817749</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9877425025288681</v>
+        <v>1.0068673048912455</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9386316713326671</v>
+        <v>1.0103775429736956</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8720492138145479</v>
+        <v>1.0153037752042549</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7912439060997678</v>
+        <v>1.0218013275822648</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7045136100955025</v>
+        <v>1.0296378549605563</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6218387849088631</v>
+        <v>1.0379399414724297</v>
       </c>
       <c r="X1" t="n">
-        <v>0.5495086511962459</v>
+        <v>1.0451028022963595</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.48817284244514964</v>
+        <v>1.0489735691075095</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.435303713050312</v>
+        <v>1.0471512275225714</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.3884234568596079</v>
+        <v>1.0371016050495585</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.3463659818243893</v>
+        <v>1.0160269994186808</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.3087403150060074</v>
+        <v>0.9808377990515886</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.2751956218646799</v>
+        <v>0.9288301351097163</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.24529744276703422</v>
+        <v>0.8595342479289296</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.21864213594646623</v>
+        <v>0.7770702433584867</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.19487938153310602</v>
+        <v>0.6903600968425702</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.17369667895499305</v>
+        <v>0.6091145483708165</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.15481460984394785</v>
+        <v>0.5386831215515439</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.13798383857506671</v>
+        <v>0.47894911462812584</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.12298189829886132</v>
+        <v>0.42720597516458453</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1096103392716042</v>
+        <v>0.3811689702108817</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.3398624081533531</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0.3029375780697614</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.27002454348038707</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.2406874083778706</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.21453219980065583</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.19121561623639508</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.17043078466927492</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.1519034790891228</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.13538900667684053</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.12066905015320556</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.10754886783572394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-30.112257451829727</v>
+        <v>-364.97160479379943</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.918712608967404</v>
+        <v>-289.9072222943722</v>
       </c>
       <c r="C2" t="n">
-        <v>-18.99895484486729</v>
+        <v>-230.28145655049883</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.091016610133426</v>
+        <v>-182.91901812612673</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.986839156420517</v>
+        <v>-145.29768449959568</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.521214932416463</v>
+        <v>-115.41398253311684</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.563027809248257</v>
+        <v>-91.67649625455252</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.008329624730004</v>
+        <v>-72.82111821765784</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.774879867933627</v>
+        <v>-57.84373129813033</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.7978256501541416</v>
+        <v>-45.94673604791799</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.0262140197752827</v>
+        <v>-36.496576117236486</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.4200509349085015</v>
+        <v>-28.990000058626894</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.9477401144390294</v>
+        <v>-23.027263296703513</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.5839565865391405</v>
+        <v>-18.29084405580477</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.308104333307309</v>
+        <v>-14.528541423045366</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.1032754573404324</v>
+        <v>-11.540058314211521</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.9553259034627215</v>
+        <v>-9.166359390429061</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.8517018960413175</v>
+        <v>-7.281243169802905</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.780030662677907</v>
+        <v>-5.784683763552649</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7271692106957887</v>
+        <v>-4.597580124462766</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.6801432761094659</v>
+        <v>-3.657594413793733</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6296966572269347</v>
+        <v>-2.915772660635328</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5737110406982919</v>
+        <v>-2.3336726195347426</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.5160880355590962</v>
+        <v>-1.8808646659762411</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4618115517484657</v>
+        <v>-1.5328936318524145</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.41330569755339625</v>
+        <v>-1.2698347090559432</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.3703653361588072</v>
+        <v>-1.0753029657531596</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.3319197259704905</v>
+        <v>-0.935506776938856</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.29725628352082595</v>
+        <v>-0.8380200345692068</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.26604166642175925</v>
+        <v>-0.7703780905315721</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.2379966556657408</v>
+        <v>-0.7193280779822461</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.21282343226799047</v>
+        <v>-0.6722111789052811</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.19024372226740627</v>
+        <v>-0.6207911694729653</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.17000467098165373</v>
+        <v>-0.5641711285619131</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.15187501094537403</v>
+        <v>-0.5068000288628222</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.13564391289917285</v>
+        <v>-0.45339461676661674</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.1211197396339905</v>
+        <v>-0.4058675373854151</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.10812869914325043</v>
+        <v>-0.36374045720550685</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.3259532221699142</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2918771741446323</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2612055206163219</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2336545176842909</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.20892748883732526</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.1867506696300901</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.16687491627095533</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.1490724011159906</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.13313555301355956</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.1188757708679552</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.10612207694892976</v>
       </c>
     </row>
   </sheetData>
@@ -555,234 +687,300 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.1328939915871403</v>
+        <v>1.1333303301945818</v>
       </c>
       <c r="B1" t="n">
-        <v>1.1326387020737798</v>
+        <v>1.1333285737576848</v>
       </c>
       <c r="C1" t="n">
-        <v>1.1322366100421744</v>
+        <v>1.1333257901115015</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1316055853727265</v>
+        <v>1.1333213786277483</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1306209065333683</v>
+        <v>1.1333143876459686</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1290980105931632</v>
+        <v>1.1333033095670617</v>
       </c>
       <c r="G1" t="n">
-        <v>1.1267751386603189</v>
+        <v>1.1332857567174914</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1233066833770868</v>
+        <v>1.1332579491819885</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1182907470711723</v>
+        <v>1.1332139069679295</v>
       </c>
       <c r="J1" t="n">
-        <v>1.111365291412848</v>
+        <v>1.1331441794280976</v>
       </c>
       <c r="K1" t="n">
-        <v>1.1023843954239445</v>
+        <v>1.1330338559282507</v>
       </c>
       <c r="L1" t="n">
-        <v>1.0915741083992208</v>
+        <v>1.1328594738173465</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0793998876050235</v>
+        <v>1.13258426902808</v>
       </c>
       <c r="N1" t="n">
-        <v>1.0659603375066589</v>
+        <v>1.132151021688055</v>
       </c>
       <c r="O1" t="n">
-        <v>1.0502696900686308</v>
+        <v>1.1314716274737218</v>
       </c>
       <c r="P1" t="n">
-        <v>1.030104749614411</v>
+        <v>1.130412753510729</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.0025336060769725</v>
+        <v>1.1287782000320739</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9647272427295697</v>
+        <v>1.126292289608964</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9148153406585172</v>
+        <v>1.1225968404599156</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8526674175876015</v>
+        <v>1.1172875978953742</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7803339502959857</v>
+        <v>1.1100244255600942</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7020428388716959</v>
+        <v>1.100715734270922</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6237404270600497</v>
+        <v>1.089648493166348</v>
       </c>
       <c r="X1" t="n">
-        <v>0.5514581681971702</v>
+        <v>1.0772804766650583</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.4886082470189406</v>
+        <v>1.0635730445417635</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.43488097434860246</v>
+        <v>1.0473255339615604</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.3880230562606677</v>
+        <v>1.0261485587632544</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.34618860529890244</v>
+        <v>0.997068925309279</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.30864859779230136</v>
+        <v>0.9573566714417439</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.27512179431970546</v>
+        <v>0.9053800089636583</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.24524237972735324</v>
+        <v>0.841350608579914</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.21860345590680444</v>
+        <v>0.7676882401643479</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.19485183723569097</v>
+        <v>0.6889543220351229</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.17367706538817151</v>
+        <v>0.6112662961864006</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.15480065958618877</v>
+        <v>0.540408004362397</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.13797392063690422</v>
+        <v>0.47916916767601614</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.1229748504474462</v>
+        <v>0.4267423529887822</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.10960533300585726</v>
+        <v>0.38080816230696285</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.3397092349324022</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0.30285024561156415</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.2699534811671298</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.24063545127835437</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.21449565279174312</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.19118956685772964</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.17041224259494828</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.15189029168064833</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.13537963186073057</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.12066238872539141</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.10754413635596723</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-30.124257207615027</v>
+        <v>-364.9725998357422</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.93377505750459</v>
+        <v>-289.9084749527663</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.017829442617234</v>
+        <v>-230.28303350371831</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.114604766315672</v>
+        <v>-182.92100329232298</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.016194282988893</v>
+        <v>-145.3001834756948</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.557508702034296</v>
+        <v>-115.41712815850782</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.607450455891253</v>
+        <v>-91.68045556616543</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.061878246844308</v>
+        <v>-72.82610110789955</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.837990166897338</v>
+        <v>-57.850001219563644</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.869857714400961</v>
+        <v>-45.95462310211815</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.1049588266136405</v>
+        <v>-36.506492764398836</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.501640677529053</v>
+        <v>-29.0024593774173</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.027341667530373</v>
+        <v>-23.042898993209846</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.6570713894445088</v>
+        <v>-18.31042986144717</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.371587818749246</v>
+        <v>-14.553004426855134</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.1553634092566587</v>
+        <v>-11.570475046720615</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.994940928865142</v>
+        <v>-9.203913822242965</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.8779331911136401</v>
+        <v>-7.327111997383031</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.792570608378926</v>
+        <v>-5.839801415588539</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7277945149174609</v>
+        <v>-4.662242945633337</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.6738321090274385</v>
+        <v>-3.730932588442075</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6229853620447006</v>
+        <v>-2.995292058793189</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5706626876375928</v>
+        <v>-2.4152755233106653</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.5164059266964196</v>
+        <v>-1.9596779321559343</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4631348183113894</v>
+        <v>-1.60459410373045</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4141271479940567</v>
+        <v>-1.3315316870886051</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.37062654778958914</v>
+        <v>-1.125400506125927</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.33202452698576995</v>
+        <v>-0.9729727434683927</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2973610932992079</v>
+        <v>-0.8619804131258054</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.26612664069888764</v>
+        <v>-0.7807495233566105</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.2380545796427107</v>
+        <v>-0.7183848879357367</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.21286412565146823</v>
+        <v>-0.6653982551066168</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1902726400026181</v>
+        <v>-0.6145227918040418</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.17002513940588584</v>
+        <v>-0.5617975944598469</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.151889503950138</v>
+        <v>-0.5074496349809887</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.13565417450007805</v>
+        <v>-0.45469401722942626</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.12112700503959013</v>
+        <v>-0.4065736832335731</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.10813384307946165</v>
+        <v>-0.36395103863965894</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.3260553924545235</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.29198088342739736</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2612855644319949</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2337089917590097</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.20896596788487115</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.1867779866491295</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.16689425144254552</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.14908609189730948</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.13314524653628607</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.11888263403900978</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.10612693608680787</v>
       </c>
     </row>
   </sheetData>
